--- a/index.xlsx
+++ b/index.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD0945-C373-4240-B2B7-809E8D6EA531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19001494-2DC0-4D2F-AF9D-A03F415C4239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8604" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-200" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,12 +46,348 @@
     <t>使用说明：此处使用用于索引对应的blog或者notes，以下按照中文版leetcode进行索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>无重复字符的最长子串</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心扩展（扩展：manacher算法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z字型字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以将输入从左到右遍历，也可以按照输出方式遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意边界条件即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串转换整数 (atoi)</t>
+  </si>
+  <si>
+    <t>暴力，注意边界条件即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转化成字符串做很简单，也可以不转化为字符串直接求位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一种巧妙的方式在于，处理一半的位数，判断两数是否相等，反转数字的位数已经达到原始数字位数的一半可以通过将原始数字除以 10，然后给反转后的数字乘上 10，当原始数字小于反转后的数字时，就意味处理了一半位数的数字。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>盛最多水的容器</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>左右指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>整数转罗马数字</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>从大到小转换就行(这也配叫贪心？？)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一值得注意的就是可以将其存入数组简化写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 罗马数字转整数</t>
+  </si>
+  <si>
+    <t>每个字符依次判断下就行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一种快捷的写法是：构建一个字典记录所有罗马数字子串，注意长度为2的子串记录的值是（实际值 - 子串内左边罗马数字代表的数值）这样一来，遍历整个 s 的时候判断当前位置和前一个位置的两个字符组成的字符串是否在字典内，如果在就记录值，不在就说明当前位置不存在小数字在前面的情况，直接记录当前位置字符对应值
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最长公共前缀</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <t>比较即可（可横向可纵向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可考虑字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三数之和</t>
+  </si>
+  <si>
+    <t>双指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序后左右指针，注意减去重复条件即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最接近的三数之和</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>和15基本一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>可以手动计算每个串应填的字符，也可以使用两个vector形成类似队列一样的东西来依次增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>四数之和</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <t>固定两数，其余两数双指针，注意循环中重复的判定条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除链表的倒数第N个节点</t>
+  </si>
+  <si>
+    <t>记录待删除节点即可一遍扫描结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的括号</t>
+  </si>
+  <si>
+    <t>利用栈即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序链表</t>
+  </si>
+  <si>
+    <t>迭代即可，注意指针的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成</t>
+  </si>
+  <si>
+    <t>用队列即可，每次对队列中的添加一个字符迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方题解：回溯，可以是广度优先(看作"("+left+")"+right)递归调用，也可以深度优先，递归调用函数记录左括号与右括号个数，长度到达后加入答案数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并K个排序链表</t>
+  </si>
+  <si>
+    <t>分治即可,（其实暴力统计所有数字再排序也挺不错（大雾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>理清交换关系就可，注意空链表和大小单数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nim 游戏</t>
+  </si>
+  <si>
+    <t>脑筋急转弯类，每次补充取4的倍数即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>一组组判断交换即可，难点在于如何进行交换与存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>删除排序数组中的重复项</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>记录一下当前的无重复位置即可，每次如果不同就交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>移除元素</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>与上类似，记录不同位置即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失的第一个正数</t>
+  </si>
+  <si>
+    <t>精彩的解法：先将大于n的数和小于等于0的数变换为n+1排除干扰，然后遍历这个数组，对于大小为k的数，让数组的第k-1项为负数，这样只要找到第一个不是负数的项就可以了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>二分的查找，必然有一半有序，一半可能乱序，只要判断是否在有序部分中就可以继续二分，因为必然会使得每一个最后都落在一个有序区间内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +401,30 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,10 +459,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -110,9 +471,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -390,10 +775,1805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="72.109375" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="10"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="10"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="10"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="10"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="10"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="10"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="10"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="10"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="10"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="10"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="10"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="10"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="10"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="10"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="10"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="10"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="10"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="10"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="10"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="10"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="10"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="10"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="10"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="10"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="10"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="10"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="10"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="10"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="10"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="10"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="10"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="10"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="10"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="10"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="10"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="10"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="10"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="10"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="10"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="10"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="10"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="10"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="10"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="10"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="10"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="10"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="10"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="10"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="10"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="10"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="10"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="10"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="10"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="10"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="10"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="10"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="10"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="10"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="10"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="10"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="10"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="10"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="10"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="10"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="10"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="10"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="10"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="10"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="10"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="10"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="10"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="10"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="10"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="10"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="10"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="10"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="10"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="10"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="10"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="10"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="10"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="10"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="10"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="10"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="10"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="10"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="10"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="10"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="10"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="10"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="10"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="10"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>184</v>
+      </c>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="10"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>185</v>
+      </c>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="10"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>186</v>
+      </c>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="10"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>187</v>
+      </c>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="10"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>188</v>
+      </c>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="10"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>189</v>
+      </c>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="10"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>190</v>
+      </c>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="10"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>191</v>
+      </c>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="10"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>192</v>
+      </c>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="10"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="10"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="10"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="10"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="10"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="10"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="10"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="10"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://leetcode-cn.com/problems/longest-substring-without-repeating-characters" xr:uid="{F4BFD937-C21F-40F4-B590-CE1887ED9CC4}"/>
+    <hyperlink ref="B10" r:id="rId2" display="https://leetcode-cn.com/problems/string-to-integer-atoi/" xr:uid="{9AD24FBF-CEFA-44C7-B25D-C3204D651C33}"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://leetcode-cn.com/problems/palindrome-number/" xr:uid="{8E97DA20-F427-4521-90F8-D6F024CC9C33}"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://leetcode-cn.com/problems/container-with-most-water" xr:uid="{9BA791DF-BC99-4AF7-A535-A9361B716722}"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://leetcode-cn.com/problems/integer-to-roman" xr:uid="{A09301E3-522B-4EAA-80BB-44BB34768488}"/>
+    <hyperlink ref="B15" r:id="rId6" display="https://leetcode-cn.com/problems/roman-to-integer/" xr:uid="{7B6F3E56-493E-48EC-AD21-70D5E1742ECF}"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://leetcode-cn.com/problems/longest-common-prefix" xr:uid="{586749B4-70A0-43DA-BADC-A42E6E67A13D}"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://leetcode-cn.com/problems/3sum/" xr:uid="{50CB3EF3-E712-4E16-8A6A-8B1D014661AB}"/>
+    <hyperlink ref="B18" r:id="rId9" display="https://leetcode-cn.com/problems/3sum-closest" xr:uid="{5283E870-9E16-4518-9E25-B7B0D40E0F18}"/>
+    <hyperlink ref="B19" r:id="rId10" display="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/" xr:uid="{13D37DA0-B9AE-421A-A2CE-437024709A2B}"/>
+    <hyperlink ref="B20" r:id="rId11" display="https://leetcode-cn.com/problems/4sum" xr:uid="{DCB1183D-59B6-4B22-BEC6-ABDCAEB1A908}"/>
+    <hyperlink ref="B21" r:id="rId12" display="https://leetcode-cn.com/problems/remove-nth-node-from-end-of-list/" xr:uid="{1D6105C0-F4AC-4122-9ED3-C407077AEF82}"/>
+    <hyperlink ref="B22" r:id="rId13" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{E614C175-D37E-4F02-8B00-E3110AAA65B8}"/>
+    <hyperlink ref="B23" r:id="rId14" display="https://leetcode-cn.com/problems/merge-two-sorted-lists/" xr:uid="{869CC1E3-FDA6-4E2F-A15C-C5629E4CA3B5}"/>
+    <hyperlink ref="B24" r:id="rId15" display="https://leetcode-cn.com/problems/generate-parentheses/" xr:uid="{9861DC8C-657C-4796-936E-A26FA5844651}"/>
+    <hyperlink ref="B25" r:id="rId16" display="https://leetcode-cn.com/problems/merge-k-sorted-lists/" xr:uid="{212F95CF-9A95-4E9A-9AFF-65A9013AD7C7}"/>
+    <hyperlink ref="B26" r:id="rId17" display="https://leetcode-cn.com/problems/swap-nodes-in-pairs/" xr:uid="{0FDAB06B-300A-40A0-BC99-A28D29DBA948}"/>
+    <hyperlink ref="B27" r:id="rId18" display="https://leetcode-cn.com/problems/reverse-nodes-in-k-group/" xr:uid="{EF3E7EA7-1716-4695-8F96-E623CB262071}"/>
+    <hyperlink ref="B28" r:id="rId19" display="https://leetcode-cn.com/problems/remove-duplicates-from-sorted-array" xr:uid="{8ECE457C-F8A3-4155-9D7A-5DA1A3596F4F}"/>
+    <hyperlink ref="B29" r:id="rId20" display="https://leetcode-cn.com/problems/remove-element" xr:uid="{84DDF1EB-3CB1-4587-9FBC-F40683E37958}"/>
+    <hyperlink ref="B43" r:id="rId21" display="https://leetcode-cn.com/problems/first-missing-positive/" xr:uid="{969F5CE8-64A2-4808-A556-84D3FB9F6C5C}"/>
+    <hyperlink ref="B35" r:id="rId22" display="https://leetcode-cn.com/problems/search-in-rotated-sorted-array/" xr:uid="{608C9024-6880-45FB-BC78-CDE94C7D9762}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFEB7CB-06BD-4EB0-916F-422144AAD8EB}">
   <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H196" sqref="H196"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -403,12 +2583,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -426,7 +2606,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -434,7 +2614,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -442,7 +2622,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -450,7 +2630,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -458,7 +2638,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -466,7 +2646,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -474,7 +2654,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -482,7 +2662,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -490,7 +2670,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>209</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -498,7 +2678,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -506,7 +2686,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -514,7 +2694,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -522,7 +2702,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -530,7 +2710,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -538,7 +2718,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -546,7 +2726,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -554,7 +2734,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -562,7 +2742,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -570,7 +2750,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -578,7 +2758,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -586,7 +2766,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -594,7 +2774,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -602,7 +2782,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>223</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -610,7 +2790,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -618,7 +2798,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -626,7 +2806,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -634,7 +2814,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -642,7 +2822,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -650,7 +2830,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -658,7 +2838,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -666,7 +2846,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -674,7 +2854,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -682,7 +2862,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -690,7 +2870,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -698,7 +2878,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -706,7 +2886,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -714,7 +2894,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>237</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -722,7 +2902,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -730,7 +2910,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -738,7 +2918,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -746,7 +2926,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -754,7 +2934,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -762,7 +2942,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -770,7 +2950,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -778,7 +2958,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -786,7 +2966,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -794,7 +2974,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -802,7 +2982,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -810,7 +2990,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -818,7 +2998,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -826,7 +3006,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -834,7 +3014,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -842,7 +3022,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -850,7 +3030,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -858,7 +3038,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -866,7 +3046,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>256</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -874,7 +3054,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -882,7 +3062,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -890,7 +3070,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -898,7 +3078,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -906,7 +3086,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -914,7 +3094,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -922,7 +3102,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -930,7 +3110,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -938,7 +3118,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -946,7 +3126,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -954,7 +3134,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -962,7 +3142,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -970,7 +3150,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -978,7 +3158,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -986,7 +3166,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -994,7 +3174,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>272</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -1002,7 +3182,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -1010,7 +3190,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -1018,7 +3198,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -1026,7 +3206,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -1034,7 +3214,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1042,7 +3222,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -1050,7 +3230,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -1058,7 +3238,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -1066,7 +3246,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>281</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -1074,7 +3254,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -1082,7 +3262,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -1090,7 +3270,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -1098,7 +3278,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -1106,7 +3286,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -1114,7 +3294,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -1122,7 +3302,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1130,7 +3310,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -1138,7 +3318,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -1146,7 +3326,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>291</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -1154,15 +3334,19 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1"/>
+        <v>292</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>293</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -1170,7 +3354,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1178,7 +3362,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -1186,7 +3370,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -1194,7 +3378,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1202,7 +3386,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>298</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -1210,7 +3394,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -1218,7 +3402,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1226,7 +3410,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -1234,7 +3418,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -1242,7 +3426,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>303</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -1250,7 +3434,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -1258,7 +3442,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -1266,7 +3450,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>306</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1274,7 +3458,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>307</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -1282,7 +3466,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -1290,7 +3474,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>309</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1298,7 +3482,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -1306,7 +3490,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -1314,7 +3498,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -1322,7 +3506,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -1330,7 +3514,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -1338,7 +3522,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -1346,7 +3530,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -1354,7 +3538,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>317</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -1362,7 +3546,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>318</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -1370,7 +3554,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -1378,7 +3562,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -1386,7 +3570,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1394,7 +3578,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>322</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -1402,7 +3586,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>323</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -1410,7 +3594,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -1418,7 +3602,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -1426,7 +3610,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>326</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -1434,7 +3618,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>327</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -1442,7 +3626,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>328</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -1450,7 +3634,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -1458,7 +3642,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -1466,7 +3650,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -1474,7 +3658,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>332</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -1482,7 +3666,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -1490,7 +3674,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>334</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -1498,7 +3682,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>335</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -1506,7 +3690,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>336</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -1514,7 +3698,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -1522,7 +3706,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1530,7 +3714,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>339</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -1538,7 +3722,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -1546,7 +3730,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -1554,7 +3738,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -1562,7 +3746,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>343</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -1570,7 +3754,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -1578,7 +3762,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -1586,7 +3770,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -1594,7 +3778,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>347</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -1602,7 +3786,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>348</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -1610,7 +3794,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -1618,7 +3802,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>350</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -1626,7 +3810,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -1634,7 +3818,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -1642,7 +3826,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1650,7 +3834,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>354</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -1658,7 +3842,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>355</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -1666,7 +3850,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>356</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -1674,7 +3858,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -1682,7 +3866,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>358</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -1690,7 +3874,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>359</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -1698,7 +3882,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -1706,7 +3890,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>361</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -1714,7 +3898,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -1722,7 +3906,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>363</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -1730,7 +3914,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>364</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -1738,7 +3922,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>365</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -1746,7 +3930,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>366</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -1754,7 +3938,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>367</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -1762,7 +3946,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -1770,7 +3954,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -1778,7 +3962,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -1786,7 +3970,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>371</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1794,7 +3978,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>372</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -1802,7 +3986,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>373</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -1810,7 +3994,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>374</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -1818,7 +4002,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>375</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -1826,7 +4010,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -1834,7 +4018,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>377</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -1842,7 +4026,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>378</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -1850,7 +4034,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>379</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -1858,7 +4042,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -1866,7 +4050,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -1874,7 +4058,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>382</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -1882,7 +4066,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>383</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -1890,7 +4074,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -1898,7 +4082,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>385</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -1906,7 +4090,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>386</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -1914,7 +4098,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>387</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -1922,7 +4106,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>388</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -1930,7 +4114,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>389</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -1938,7 +4122,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -1946,7 +4130,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -1954,7 +4138,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>392</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -1962,7 +4146,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>393</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -1970,7 +4154,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>394</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -1978,7 +4162,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>395</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -1986,7 +4170,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>396</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -1994,7 +4178,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>397</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -2002,7 +4186,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>398</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -2010,7 +4194,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -2018,7 +4202,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -2029,1654 +4213,11 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B94" r:id="rId1" display="https://leetcode-cn.com/problems/nim-game/" xr:uid="{9991D887-5D86-4DAB-9331-EBBBA6BEC4E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFEB7CB-06BD-4EB0-916F-422144AAD8EB}">
-  <dimension ref="A1:D202"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="4" width="30.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>201</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>202</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>203</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>204</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>205</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>206</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>207</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>208</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>209</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>210</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>211</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>212</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>213</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>214</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>215</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>216</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>217</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>218</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>219</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>220</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>221</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>222</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>223</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>224</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>225</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>226</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>227</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>228</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>229</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>230</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>231</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>232</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>233</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>234</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>235</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>236</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>237</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>238</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>239</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>240</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>241</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>242</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>243</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>244</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>245</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>246</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>247</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>248</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>249</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>250</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>251</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>252</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>253</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>254</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>255</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>256</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>257</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>258</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>259</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>260</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>261</v>
-      </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>262</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>263</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>264</v>
-      </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>265</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>266</v>
-      </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>267</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>268</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>269</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>270</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>271</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>272</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>273</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>274</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>275</v>
-      </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>276</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>277</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>278</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>279</v>
-      </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>280</v>
-      </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>281</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>282</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>283</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>284</v>
-      </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>285</v>
-      </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>286</v>
-      </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>287</v>
-      </c>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>288</v>
-      </c>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>289</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>290</v>
-      </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>291</v>
-      </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>292</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>293</v>
-      </c>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>294</v>
-      </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>295</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>296</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>297</v>
-      </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>298</v>
-      </c>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>299</v>
-      </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>300</v>
-      </c>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>301</v>
-      </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>302</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>303</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>304</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>305</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>306</v>
-      </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>307</v>
-      </c>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>308</v>
-      </c>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>309</v>
-      </c>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>310</v>
-      </c>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>311</v>
-      </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>312</v>
-      </c>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>313</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>314</v>
-      </c>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>315</v>
-      </c>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>316</v>
-      </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>317</v>
-      </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>318</v>
-      </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>319</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>320</v>
-      </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>321</v>
-      </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>322</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>323</v>
-      </c>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>324</v>
-      </c>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>325</v>
-      </c>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>326</v>
-      </c>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>327</v>
-      </c>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>328</v>
-      </c>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>329</v>
-      </c>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>330</v>
-      </c>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>331</v>
-      </c>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>332</v>
-      </c>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>333</v>
-      </c>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>334</v>
-      </c>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>335</v>
-      </c>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>336</v>
-      </c>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>337</v>
-      </c>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>338</v>
-      </c>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>339</v>
-      </c>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>340</v>
-      </c>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>341</v>
-      </c>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>342</v>
-      </c>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>343</v>
-      </c>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>344</v>
-      </c>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>345</v>
-      </c>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>346</v>
-      </c>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>347</v>
-      </c>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>348</v>
-      </c>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>349</v>
-      </c>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>350</v>
-      </c>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>351</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>352</v>
-      </c>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>353</v>
-      </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>354</v>
-      </c>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>355</v>
-      </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>356</v>
-      </c>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>357</v>
-      </c>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>358</v>
-      </c>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>359</v>
-      </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>360</v>
-      </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>361</v>
-      </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>362</v>
-      </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>363</v>
-      </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>364</v>
-      </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>365</v>
-      </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>366</v>
-      </c>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>367</v>
-      </c>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>368</v>
-      </c>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>369</v>
-      </c>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>370</v>
-      </c>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
-        <v>371</v>
-      </c>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>372</v>
-      </c>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>373</v>
-      </c>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>374</v>
-      </c>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>375</v>
-      </c>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>376</v>
-      </c>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>377</v>
-      </c>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>378</v>
-      </c>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>379</v>
-      </c>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>380</v>
-      </c>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>381</v>
-      </c>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>382</v>
-      </c>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>383</v>
-      </c>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>384</v>
-      </c>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>385</v>
-      </c>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>386</v>
-      </c>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>387</v>
-      </c>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>388</v>
-      </c>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>389</v>
-      </c>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>390</v>
-      </c>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>391</v>
-      </c>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>392</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>393</v>
-      </c>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>394</v>
-      </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>395</v>
-      </c>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>396</v>
-      </c>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>397</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>398</v>
-      </c>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>399</v>
-      </c>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>400</v>
-      </c>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3695,12 +4236,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -5341,12 +5882,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6987,12 +7528,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8633,12 +9174,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
